--- a/autotest-2.xlsx
+++ b/autotest-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\보고서앱\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C81370E8-E1E7-400E-982D-61A9B30C8D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DDAD76-FBC0-4654-A6C1-85A7131E5726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F75F05A7-C736-4045-98C7-02878C86567D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{F75F05A7-C736-4045-98C7-02878C86567D}"/>
   </bookViews>
   <sheets>
     <sheet name="서비스 이용 인원" sheetId="1" r:id="rId1"/>
@@ -1234,11 +1234,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C0E64F-3BDD-460F-B6D1-781E155C12C5}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="B1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="7" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1405,13 +1410,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91396029-88CA-4649-8522-0764BF69354A}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="B1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
@@ -1586,12 +1594,15 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A2:A20"/>
+      <selection activeCell="M1" sqref="B1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
@@ -1838,12 +1849,15 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B1" sqref="B1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
@@ -2089,13 +2103,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1A08AF-7FB1-4F30-887F-55FD3082D746}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="B1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
@@ -2306,13 +2323,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E794AF5C-686C-442F-A0EE-3FD8F5C78905}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="B1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
@@ -2499,13 +2519,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887D7969-7F1A-407D-A7DE-EA36616D1C6F}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
@@ -2673,11 +2696,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0155F563-CE0C-43DB-ADDA-B4E333301DB1}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -2835,10 +2863,15 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -2996,11 +3029,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F15572B-6A7C-421F-821B-CA944C9CBC69}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -3155,12 +3193,15 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="B1" sqref="B1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
@@ -3339,13 +3380,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ACDFDB-2DC4-452F-8A48-070A8ABC32CD}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
@@ -3517,13 +3561,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734EC361-80F0-48A6-9713-7B69A54BE48B}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
@@ -3679,13 +3726,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AB1479-4709-4EEC-B060-668FAC544A3C}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="B1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
@@ -3841,13 +3891,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B975E1BA-8D82-4098-949D-2B8192F326C9}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="B1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">

--- a/autotest-2.xlsx
+++ b/autotest-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\보고서앱\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DDAD76-FBC0-4654-A6C1-85A7131E5726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53639513-255B-4C76-A057-53585B799549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{F75F05A7-C736-4045-98C7-02878C86567D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F75F05A7-C736-4045-98C7-02878C86567D}"/>
   </bookViews>
   <sheets>
     <sheet name="서비스 이용 인원" sheetId="1" r:id="rId1"/>
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C0E64F-3BDD-460F-B6D1-781E155C12C5}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="B1:M1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3029,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F15572B-6A7C-421F-821B-CA944C9CBC69}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3193,7 +3193,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1048576"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
